--- a/docs/PTA2a_DDC_15/PTA2a_DDC_15_31.07.24_output.xlsx
+++ b/docs/PTA2a_DDC_15/PTA2a_DDC_15_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731683499.7144985</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731683502.4592555</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683499.7144985.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683502.4592555.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>290.01</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.37</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.6399999999999864</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731683503.3157947</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731683504.248288</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683503.3157947.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683504.248288.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>288.92</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.4200000000000159</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731683505.9396455</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731683508.9387696</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683505.9396455.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683508.9387696.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.74</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>289.82</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731683509.9785914</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731683510.2768424</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683509.9785914.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683510.2768424.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>290.69</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>289.97</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.7199999999999704</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731683510.2915525</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731683510.420407</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683510.2915525.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683510.420407.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>289.97</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>290.15</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.17999999999995</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731683513.7604573</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731683514.5323935</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683513.7604573.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731683514.5323935.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>288.53</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>288.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.07000000000005002</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -851,95 +903,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731683515.0371115</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731683515.0371115.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731683515.0371115.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>288.88</v>
       </c>
-      <c r="J9" t="n">
-        <v>288.88</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>289.15</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.2699999999999818</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731683517.571511</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731683520.528381</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683517.571511.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683520.528381.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.79</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>133.51</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.7199999999999989</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731683520.9333782</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731683522.4915452</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683520.9333782.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683522.4915452.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.33</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>133.19</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.1400000000000148</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731683524.4131331</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731683524.924907</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683524.4131331.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683524.924907.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>132.32</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>132.76</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731683525.1684217</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731683528.3756485</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683525.1684217.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683528.3756485.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>133.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>133.52</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731683529.6158798</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731683530.4803724</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683529.6158798.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683530.4803724.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>133.17</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>133.68</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5100000000000193</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731683530.721798</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731683531.2273884</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683530.721798.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683531.2273884.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>134.08</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>133.58</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731683532.9081619</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731683535.3393004</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683532.9081619.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731683535.3393004.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>132.84</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>132.83</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1259,95 +1359,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731683535.5477085</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731683535.5477085.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731683535.5477085.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>133.06</v>
       </c>
-      <c r="J17" t="n">
-        <v>133.06</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>133.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.289999999999992</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731683541.4321592</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731683542.4451206</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683541.4321592.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683542.4451206.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6801</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6783.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>17.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731683542.5020273</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731683545.0024571</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683542.5020273.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683545.0024571.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6782</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6778.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-3.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731683547.2907603</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731683549.8857777</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683547.2907603.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683549.8857777.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6789</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6787.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731683550.0850573</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731683552.4767463</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683550.0850573.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683552.4767463.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6773</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6770</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-3</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731683556.4569213</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731683556.6526976</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683556.4569213.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683556.6526976.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6749</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6745</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731683557.217841</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731683557.7609231</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683557.217841.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683557.7609231.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6749</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6745.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731683558.5462263</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731683561.016813</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683558.5462263.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731683561.016813.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6749</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6747.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.5</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1667,43 +1815,49 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731683561.032772</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731683561.032772.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731683561.032772.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6747.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6747.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731683563.6542382</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731683565.8469267</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683563.6542382.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683565.8469267.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>511.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>511.7</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.5999999999999659</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731683565.9748366</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731683566.9698136</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683565.9748366.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683566.9698136.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>512.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>511.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731683568.3129828</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731683568.4638424</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683568.3129828.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683568.4638424.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>511</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>511.95</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731683568.8076515</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731683571.4019897</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683568.8076515.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683571.4019897.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>513.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>513.35</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731683572.4708433</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731683573.4700558</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683572.4708433.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683573.4700558.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>512.65</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>513.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731683575.1806853</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731683576.2999856</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683575.1806853.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683576.2999856.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>515.05</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>514</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.049999999999955</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731683576.6166413</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731683578.7348735</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683576.6166413.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683578.7348735.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>513.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>513.9</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731683579.0039346</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731683581.018923</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683579.0039346.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731683581.018923.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>514</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>513.45</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.5499999999999545</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2127,95 +2329,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731683582.6051009</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731683582.6051009.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731683582.6051009.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>514.85</v>
       </c>
-      <c r="J34" t="n">
-        <v>514.85</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>514.95</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731683585.3352396</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731683587.6975226</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683585.3352396.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683587.6975226.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1046.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1042</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-4.200000000000045</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731683587.9052422</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731683588.2708504</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683587.9052422.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683588.2708504.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1034.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1039.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>5</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731683588.9728734</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731683590.4100041</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683588.9728734.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683590.4100041.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1033</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1037.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>4.400000000000091</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731683590.4898396</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731683591.709102</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683590.4898396.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683591.709102.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1040</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1038.8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731683592.0389476</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731683593.381245</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683592.0389476.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683593.381245.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1045.6</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1040.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731683595.9442976</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731683596.6001315</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683595.9442976.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683596.6001315.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1043.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1041.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731683596.8986793</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731683598.3721871</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683596.8986793.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683598.3721871.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1043.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1039.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731683599.9278412</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731683600.2495906</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683599.9278412.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683600.2495906.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1039.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1040.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731683601.339483</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731683603.5588574</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683601.339483.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731683603.5588574.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1041</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1041.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2639,95 +2901,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731683604.0929902</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731683604.0929902.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731683604.0929902.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1041</v>
       </c>
-      <c r="J44" t="n">
-        <v>1041</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1042.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.599999999999909</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731683605.9853144</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731683606.3481612</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731683605.9853144.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731683606.3481612.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>11.95</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>11.94</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2735,51 +3009,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731683607.5603404</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731683611.568946</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731683607.5603404.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731683611.568946.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>11.953</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>11.971</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.01800000000000068</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731683611.8056252</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731683616.245283</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731683611.8056252.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731683616.245283.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>11.964</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>11.912</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.0519999999999996</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731683619.8614812</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731683623.4498672</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731683619.8614812.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731683623.4498672.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>11.895</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>11.864</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.03099999999999881</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731683626.6595418</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731683629.0634997</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731683626.6595418.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731683629.0634997.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>127.72</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>127.42</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.2999999999999972</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731683629.5314827</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731683630.1696763</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731683629.5314827.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731683630.1696763.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>127.64</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>127.3</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731683631.2422173</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731683635.189897</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731683631.2422173.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731683635.189897.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>127.7</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>129.48</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-1.779999999999987</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-1.39</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731683639.336681</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731683640.2871838</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731683639.336681.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731683640.2871838.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>129.9</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>129.56</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3099,95 +3415,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731683642.5370207</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731683642.5370207.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731683642.5370207.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>129.78</v>
       </c>
-      <c r="J53" t="n">
-        <v>129.78</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>129.82</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731683647.1520004</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731683649.1732433</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683647.1520004.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683649.1732433.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>165.68</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>164.76</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.9200000000000159</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -3195,51 +3523,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731683651.2838848</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731683651.7823627</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683651.2838848.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683651.7823627.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>163.98</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>164.66</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.6800000000000068</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -3247,51 +3581,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731683651.97646</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731683653.987115</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683651.97646.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683653.987115.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>164.76</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>165.2</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -3299,51 +3639,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731683656.6722035</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731683657.4207969</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683656.6722035.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683657.4207969.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>165.58</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>165.28</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3351,51 +3697,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731683657.7431774</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731683659.2737253</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683657.7431774.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683659.2737253.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>165.2</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>164.96</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3403,51 +3755,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731683659.289683</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731683659.596386</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683659.289683.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683659.596386.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>164.96</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>165.08</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3455,51 +3813,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731683661.6950464</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731683662.5573378</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683661.6950464.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731683662.5573378.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>165.2</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>165.12</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3507,95 +3871,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731683664.4998603</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731683664.4998603.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731683664.4998603.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>165.44</v>
       </c>
-      <c r="J61" t="n">
-        <v>165.44</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>165.68</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731683667.9007976</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731683671.8000846</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683667.9007976.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683671.8000846.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>51.3</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>51.025</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.2749999999999986</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -3603,51 +3979,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731683671.8160753</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731683671.965041</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683671.8160753.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683671.965041.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>51.025</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>50.95</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.07499999999999574</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3655,51 +4037,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731683672.157401</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731683672.6639762</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683672.157401.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683672.6639762.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>50.88</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>50.985</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1049999999999969</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3707,51 +4095,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731683674.01385</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731683674.1649098</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683674.01385.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683674.1649098.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>50.8</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>51.005</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.2050000000000054</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3759,51 +4153,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731683674.3037012</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731683675.3587801</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683674.3037012.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683675.3587801.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>51.13</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>50.98</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3811,51 +4211,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731683676.725674</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731683677.6587224</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683676.725674.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683677.6587224.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>50.91</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>51.075</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1650000000000063</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3863,51 +4269,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731683677.8238764</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731683678.6219563</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683677.8238764.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683678.6219563.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>51.195</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>50.81</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.384999999999998</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3915,51 +4327,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731683678.9809237</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731683681.141519</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683678.9809237.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683681.141519.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>50.61</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>50.77</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1600000000000037</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3967,51 +4385,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731683681.8120708</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731683682.026263</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683681.8120708.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683682.026263.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>50.675</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>50.725</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4019,51 +4443,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731683682.6345348</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731683686.1148672</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683682.6345348.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731683686.1148672.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>50.82</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>50.775</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4071,95 +4501,107 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731683686.2258427</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731683686.2258427.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731683686.2258427.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>50.705</v>
       </c>
-      <c r="J72" t="n">
-        <v>50.705</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>50.74</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731683687.4811652</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731683689.1728873</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683687.4811652.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683689.1728873.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1428.2</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1426.8</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4167,51 +4609,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731683689.4598696</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731683693.6773927</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683689.4598696.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683693.6773927.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1423</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1417</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-6</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -4219,51 +4667,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731683693.843196</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731683694.0037897</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683693.843196.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683694.0037897.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>1413.8</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>1416.8</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>3</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4271,51 +4725,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731683695.4051976</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731683696.548109</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683695.4051976.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683696.548109.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>1421</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>1416.4</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -4323,51 +4783,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731683697.063606</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731683699.45947</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683697.063606.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683699.45947.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>1413</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1417</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>4</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4375,51 +4841,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731683699.5607312</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731683699.89338</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683699.5607312.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683699.89338.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>1417.8</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>1414</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -4427,51 +4899,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731683700.0306797</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731683700.2649617</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683700.0306797.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683700.2649617.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>1415.4</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>2</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4479,51 +4957,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731683701.3291852</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731683704.7027483</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683701.3291852.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683704.7027483.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>1412.8</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.6000000000001364</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4531,51 +5015,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731683705.0333352</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731683705.2007437</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683705.0333352.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683705.2007437.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>1412.6</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>1412.6</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4583,51 +5073,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731683705.2739892</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731683705.8108408</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683705.2739892.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731683705.8108408.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>1412</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>1412.8</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4635,95 +5131,107 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731683706.067224</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731683706.067224.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731683706.067224.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>1412.6</v>
       </c>
-      <c r="J83" t="n">
-        <v>1412.6</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1416.6</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731683708.1624146</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731683710.2463775</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683708.1624146.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683710.2463775.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>61.3</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>61.18</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4731,51 +5239,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731683710.6437306</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731683713.0729983</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683710.6437306.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683713.0729983.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>61.12</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>60.97</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.1499999999999986</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -4783,51 +5297,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731683715.1630073</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731683715.6263747</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683715.1630073.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683715.6263747.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>60.73</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>60.87</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4835,51 +5355,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731683715.707348</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731683717.2259123</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683715.707348.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683717.2259123.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>60.98</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>60.79</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4887,51 +5413,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731683717.3593812</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731683718.0934265</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683717.3593812.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683718.0934265.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>61</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>60.92</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4939,51 +5471,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731683718.6812754</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731683720.5478494</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683718.6812754.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683720.5478494.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>60.73</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>60.92</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.1900000000000048</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4991,51 +5529,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731683720.6579764</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731683721.8472164</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683720.6579764.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683721.8472164.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>60.92</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>60.68</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.240000000000002</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -5043,51 +5587,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731683723.532167</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731683724.3441703</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683723.532167.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731683724.3441703.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>60.61</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>60.66</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5095,95 +5645,107 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731683726.1140356</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731683726.1140356.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731683726.1140356.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>60.7</v>
       </c>
-      <c r="J92" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>60.94</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731683731.7190673</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731683732.5369766</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683731.7190673.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683732.5369766.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>58.58</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>58.25</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -5191,51 +5753,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731683732.5798886</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731683736.1489367</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683732.5798886.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683736.1489367.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>58.24</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>57.71</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.5300000000000011</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.91</v>
       </c>
     </row>
@@ -5243,51 +5811,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731683736.4301763</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731683738.305069</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683736.4301763.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683738.305069.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>57.82</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>57.93</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -5295,51 +5869,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731683739.9695103</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731683740.3118536</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683739.9695103.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683740.3118536.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>57.91</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>58.14</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.230000000000004</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -5347,51 +5927,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731683740.3822086</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731683741.260572</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683740.3822086.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731683741.260572.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>58.21</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>57.89</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.3200000000000003</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -5399,95 +5985,107 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731683745.4229574</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731683745.4229574.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731683745.4229574.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>57.95</v>
       </c>
-      <c r="J98" t="n">
-        <v>57.95</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>58.8</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.8499999999999943</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-1.47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731683747.2444375</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731683749.4576263</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683747.2444375.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683749.4576263.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>142.48</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>142.22</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -5495,51 +6093,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731683749.5466833</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731683749.973569</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683749.5466833.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683749.973569.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>142.12</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>143.02</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -5547,51 +6151,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731683752.5487647</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731683752.6627772</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683752.5487647.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683752.6627772.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>142.46</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>142.66</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -5599,51 +6209,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731683753.8509336</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731683755.4175231</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683753.8509336.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683755.4175231.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>142.98</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>142.72</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -5651,51 +6267,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731683755.9511666</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731683760.9190476</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683755.9511666.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731683760.9190476.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>143.5</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>143.64</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.1399999999999864</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -5703,95 +6325,107 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731683766.7273288</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731683766.7273288.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731683766.7273288.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>143.68</v>
       </c>
-      <c r="J104" t="n">
-        <v>143.68</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>143.66</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731683768.423401</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731683770.456863</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731683768.423401.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731683770.456863.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>85.66</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -5799,51 +6433,57 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731683770.75487</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731683777.7418392</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731683770.75487.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731683777.7418392.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>85.31999999999999</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>84.8</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-0.519999999999996</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -5851,51 +6491,57 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731683786.1763136</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731683788.442843</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683786.1763136.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683788.442843.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>376.74</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>376.36</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -5903,51 +6549,57 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731683788.4876022</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731683791.1008804</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683788.4876022.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683791.1008804.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>376.23</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>373.91</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-2.319999999999993</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -5955,51 +6607,57 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731683792.5579743</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731683793.3189626</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683792.5579743.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683793.3189626.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>371.24</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>373.12</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>1.879999999999995</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -6007,51 +6665,57 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731683793.564706</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731683797.0019693</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683793.564706.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683797.0019693.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>374.06</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>374.91</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-0.8500000000000227</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -6059,51 +6723,57 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731683797.3239915</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731683798.524748</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683797.3239915.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683798.524748.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>373.52</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>375.03</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>1.509999999999991</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -6111,51 +6781,57 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731683799.407117</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731683804.0311925</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683799.407117.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731683804.0311925.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>374.01</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>375.91</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-1.900000000000034</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -6163,95 +6839,107 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731683805.0950441</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731683805.0950441.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731683805.0950441.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>376.38</v>
       </c>
-      <c r="J113" t="n">
-        <v>376.38</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>376.43</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731683806.6220968</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731683807.6432967</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683806.6220968.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683807.6432967.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>0.0974</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.0007800000000000029</v>
       </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -6259,51 +6947,57 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731683808.1417997</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731683810.1739917</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683808.1417997.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683810.1739917.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>0.09824000000000001</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>-6.000000000000449e-05</v>
       </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -6311,51 +7005,57 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731683810.3510294</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731683811.2234337</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683810.3510294.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683811.2234337.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>0.09792000000000001</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>0.09834000000000001</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.0004200000000000037</v>
       </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -6363,51 +7063,57 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731683812.6738524</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731683817.034673</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683812.6738524.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683817.034673.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-0.0008799999999999919</v>
       </c>
-      <c r="L117" t="n">
+      <c r="N117" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -6415,51 +7121,57 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731683817.341772</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731683817.4942684</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683817.341772.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683817.4942684.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>0.1002</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>0.09968</v>
       </c>
-      <c r="K118" t="n">
-        <v>0.0005200000000000066</v>
-      </c>
-      <c r="L118" t="n">
+      <c r="M118" t="n">
+        <v>0.0005199999999999927</v>
+      </c>
+      <c r="N118" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -6467,51 +7179,57 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731683817.9542055</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731683819.5420656</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683817.9542055.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683819.5420656.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>0.09998000000000001</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.09974000000000001</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.0002400000000000041</v>
       </c>
-      <c r="L119" t="n">
+      <c r="N119" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -6519,51 +7237,57 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731683822.3325489</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731683822.5158474</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683822.3325489.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683822.5158474.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>0.09986</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>-2.000000000000612e-05</v>
       </c>
-      <c r="L120" t="n">
+      <c r="N120" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -6571,51 +7295,57 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731683822.559706</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731683824.2269807</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683822.559706.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/FEES1731683824.2269807.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>0.0999</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.09998000000000001</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>-8.000000000001062e-05</v>
       </c>
-      <c r="L121" t="n">
+      <c r="N121" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -6623,51 +7353,57 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731683825.0701811</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731683827.7914674</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683825.0701811.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683827.7914674.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>34.76</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>34.75</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L122" t="n">
+      <c r="N122" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -6675,51 +7411,57 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731683828.0842862</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731683830.7410767</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683828.0842862.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683830.7410767.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>34.71</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>34.7</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L123" t="n">
+      <c r="N123" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -6727,51 +7469,57 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731683831.2173796</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731683831.6564157</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683831.2173796.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683831.6564157.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>34.635</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>34.64</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L124" t="n">
+      <c r="N124" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -6779,51 +7527,57 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731683832.1282287</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731683834.0878088</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683832.1282287.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683834.0878088.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>34.7</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>34.65</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L125" t="n">
+      <c r="N125" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -6831,51 +7585,57 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731683834.6934562</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>1731683835.8833568</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683834.6934562.png</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683835.8833568.png</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>34.64</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>34.645</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L126" t="n">
+      <c r="N126" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -6883,51 +7643,57 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>1731683837.5183718</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>1731683837.909083</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683837.5183718.png</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731683837.909083.png</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
         <v>34.645</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>34.56</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>0.08500000000000085</v>
       </c>
-      <c r="L127" t="n">
+      <c r="N127" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -6935,44 +7701,50 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>1731683841.8123875</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731683841.8123875.png</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731683841.8123875.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
         <v>34.595</v>
       </c>
-      <c r="J128" t="n">
-        <v>34.595</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>34.69</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-0.09499999999999886</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -7033,19 +7805,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.065000000000019</v>
+        <v>1.100000000000023</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09681818181818355</v>
+        <v>0.1000000000000021</v>
       </c>
       <c r="E2" t="n">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="F2" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -7055,19 +7827,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.99999999999977</v>
+        <v>8.999999999999773</v>
       </c>
       <c r="C3" t="n">
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.181818181818161</v>
+        <v>0.8181818181817975</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -7077,19 +7849,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.79999999999973</v>
+        <v>20.39999999999964</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.879999999999973</v>
+        <v>2.039999999999964</v>
       </c>
       <c r="E4" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="F4" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -7099,19 +7871,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8599999999999994</v>
+        <v>0.6200000000000045</v>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09555555555555549</v>
+        <v>0.06888888888888939</v>
       </c>
       <c r="E5" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -7121,19 +7893,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.249999999999886</v>
+        <v>5.149999999999864</v>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5833333333333207</v>
+        <v>0.5722222222222071</v>
       </c>
       <c r="E6" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -7143,13 +7915,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0009200000000000041</v>
+        <v>0.0009199999999999903</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001150000000000005</v>
+        <v>0.0001149999999999988</v>
       </c>
       <c r="E7" t="n">
         <v>0.93</v>
@@ -7165,19 +7937,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3600000000000136</v>
+        <v>0.0700000000000216</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04500000000000171</v>
+        <v>0.0087500000000027</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7209,19 +7981,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05999999999997385</v>
+        <v>-0.1800000000000352</v>
       </c>
       <c r="C10" t="n">
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007499999999996732</v>
+        <v>-0.02250000000000441</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03000000000000005</v>
+        <v>-0.1199999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11">
@@ -7231,16 +8003,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.300000000000068</v>
+        <v>-1.35000000000008</v>
       </c>
       <c r="C11" t="n">
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1857142857142955</v>
+        <v>-0.1928571428571542</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="F11" t="n">
         <v>-0.05</v>
@@ -7253,19 +8025,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1450000000000102</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="C12" t="n">
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02071428571428718</v>
+        <v>0.007142857142858767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.41</v>
+        <v>0.14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
@@ -7275,19 +8047,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6700000000000159</v>
+        <v>0.4000000000000341</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09571428571428799</v>
+        <v>0.05714285714286201</v>
       </c>
       <c r="E13" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
@@ -7297,16 +8069,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.47999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C14" t="n">
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>0.246666666666665</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F14" t="n">
         <v>0.17</v>
@@ -7319,19 +8091,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.240000000000002</v>
+        <v>-0.6099999999999923</v>
       </c>
       <c r="C15" t="n">
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04000000000000033</v>
+        <v>-0.1016666666666654</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4099999999999999</v>
+        <v>-1.06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="16">
@@ -7341,16 +8113,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.399999999999977</v>
+        <v>-1.439999999999969</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2799999999999955</v>
+        <v>-0.2879999999999939</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.09</v>
+        <v>-1.12</v>
       </c>
       <c r="F16" t="n">
         <v>-0.22</v>
